--- a/配置文档/地图相关/战役副本相关.xlsx
+++ b/配置文档/地图相关/战役副本相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7860" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ChapterBase_战役基础数据" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="198">
   <si>
     <t>该表用于保存章节基本数据
 一个章节就是玩家可选的一个模式
@@ -106,20 +106,26 @@
 暂不使用</t>
   </si>
   <si>
-    <t>章节所用大地图id</t>
+    <t>战役所用大地图id</t>
   </si>
   <si>
     <t>地图相机id</t>
   </si>
   <si>
-    <t>章节图片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">章节初始关卡列表
+    <t>战役图片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战役初始关卡列表
 一开始就解锁的关卡
 </t>
   </si>
   <si>
+    <t>战役包含的特殊关卡</t>
+  </si>
+  <si>
+    <t>战役初始就占领的位置列表</t>
+  </si>
+  <si>
     <t>字段导出设置</t>
   </si>
   <si>
@@ -153,6 +159,9 @@
     <t>ChapterStartCopy</t>
   </si>
   <si>
+    <t>UnLockList</t>
+  </si>
+  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -168,6 +177,9 @@
     <t>&lt;INT&gt;</t>
   </si>
   <si>
+    <t>&lt;Vector2I&gt;</t>
+  </si>
+  <si>
     <t>战役一</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
   </si>
   <si>
     <t>战役一描述2</t>
+  </si>
+  <si>
+    <t>#BASEVALUE</t>
   </si>
   <si>
     <t>该表用于保存关卡基础数据
@@ -189,6 +204,11 @@
   </si>
   <si>
     <t>关卡UIid</t>
+  </si>
+  <si>
+    <t>关卡类型
+1 常规刷怪关
+2 点击奖励关</t>
   </si>
   <si>
     <t>关卡所用地图id
@@ -220,6 +240,9 @@
     <t>CopyUiId</t>
   </si>
   <si>
+    <t>CopyType</t>
+  </si>
+  <si>
     <t>GenerateMapId</t>
   </si>
   <si>
@@ -236,9 +259,6 @@
   </si>
   <si>
     <t>(4,4)</t>
-  </si>
-  <si>
-    <t>#BASEVALUE</t>
   </si>
   <si>
     <t>该表用于保存关卡刷怪基础数据
@@ -247,7 +267,7 @@
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
-    <t xml:space="preserve">关卡类型
+    <t xml:space="preserve">关卡刷怪类型
 0 通用类型，造塔刷怪，
 且无玩家实体
 </t>
@@ -276,10 +296,7 @@
 该参数无效</t>
   </si>
   <si>
-    <t>CopyType</t>
-  </si>
-  <si>
-    <t>WaveNum</t>
+    <t>AllWave</t>
   </si>
   <si>
     <t>BrushSpace</t>
@@ -297,10 +314,10 @@
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>(1,5)|(2,10)|(3,60)</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>(1,5)|(2,5)</t>
   </si>
   <si>
     <t>1</t>
@@ -378,9 +395,6 @@
     <t>BOOL</t>
   </si>
   <si>
-    <t>&lt;Vector2I&gt;</t>
-  </si>
-  <si>
     <t>FLOAT</t>
   </si>
   <si>
@@ -437,7 +451,17 @@
 每隔WaveTime帧刷新下一组</t>
   </si>
   <si>
-    <t>波数随机刷新数据列表</t>
+    <t>刷新数据列表2
+(组序号，cfg_UnitGroupData_单位组配置的单位组id,阵营id)
+用于刷新一个单位组，单位组是特殊的集团
+统一行动，还有特殊编号
+刷新方式为1，就是直接全部刷新
+刷新方式为2，就是从组序号1开始刷新
+每隔WaveTime帧刷新下一组</t>
+  </si>
+  <si>
+    <t>波数随机刷新数据列表
+()</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -476,7 +500,7 @@
     <t>直接全部刷新</t>
   </si>
   <si>
-    <t>(1,1,1,3000)</t>
+    <t>(1,1,1,3)</t>
   </si>
   <si>
     <t>第二波</t>
@@ -1847,10 +1871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1863,24 +1887,24 @@
     <col min="6" max="6" width="17.1083333333333" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="10" width="29.9" customWidth="1"/>
-    <col min="11" max="12" width="25.625" customWidth="1"/>
-    <col min="13" max="16" width="23.5" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="31.25" customWidth="1"/>
-    <col min="19" max="19" width="57.2583333333333" customWidth="1"/>
-    <col min="20" max="20" width="27.6416666666667" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="28.25" customWidth="1"/>
-    <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="21.125" customWidth="1"/>
-    <col min="25" max="25" width="26" customWidth="1"/>
-    <col min="26" max="26" width="23.375" customWidth="1"/>
-    <col min="27" max="28" width="29.625" customWidth="1"/>
-    <col min="29" max="29" width="23.625" customWidth="1"/>
-    <col min="30" max="30" width="18.875" customWidth="1"/>
+    <col min="11" max="13" width="25.625" customWidth="1"/>
+    <col min="14" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="31.25" customWidth="1"/>
+    <col min="20" max="20" width="57.2583333333333" customWidth="1"/>
+    <col min="21" max="21" width="27.6416666666667" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="28.25" customWidth="1"/>
+    <col min="24" max="24" width="21" customWidth="1"/>
+    <col min="25" max="25" width="21.125" customWidth="1"/>
+    <col min="26" max="26" width="26" customWidth="1"/>
+    <col min="27" max="27" width="23.375" customWidth="1"/>
+    <col min="28" max="29" width="29.625" customWidth="1"/>
+    <col min="30" max="30" width="23.625" customWidth="1"/>
+    <col min="31" max="31" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="57" spans="1:30">
+    <row r="1" s="3" customFormat="1" ht="57" spans="1:31">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1911,28 +1935,33 @@
       <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="8"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
-      <c r="AC1" s="9"/>
+      <c r="AA1" s="9"/>
       <c r="AD1" s="9"/>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:10">
+      <c r="AE1" s="9"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:12">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -1959,74 +1988,82 @@
         <v>2</v>
       </c>
       <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:10">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:30">
+        <v>22</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:31">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -2045,8 +2082,9 @@
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-    </row>
-    <row r="5" s="35" customFormat="1" ht="77.25" spans="1:22">
+      <c r="AE4" s="10"/>
+    </row>
+    <row r="5" s="35" customFormat="1" ht="77.25" spans="1:23">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2054,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2079,17 +2117,20 @@
         <v>1</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:22">
+      <c r="S5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:23">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -2106,12 +2147,13 @@
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
-      <c r="R6" s="24"/>
+      <c r="Q6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="V6" s="24"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:22">
+      <c r="U6" s="24"/>
+      <c r="W6" s="24"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:23">
       <c r="A7" s="37"/>
       <c r="B7" s="33"/>
       <c r="C7" s="24"/>
@@ -2128,12 +2170,13 @@
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
-      <c r="R7" s="24"/>
+      <c r="Q7" s="24"/>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
-      <c r="V7" s="24"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:22">
+      <c r="U7" s="24"/>
+      <c r="W7" s="24"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:23">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -2150,12 +2193,13 @@
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="Q8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
-      <c r="V8" s="24"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:22">
+      <c r="U8" s="24"/>
+      <c r="W8" s="24"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:23">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -2172,12 +2216,13 @@
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="Q9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
-      <c r="V9" s="24"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:22">
+      <c r="U9" s="24"/>
+      <c r="W9" s="24"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:23">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2194,14 +2239,15 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
-      <c r="R10" s="24"/>
+      <c r="Q10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
-      <c r="V10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="W10" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4 I4:AD4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4 I4:AE4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2214,57 +2260,61 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="33.5166666666667" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="5" max="5" width="25.7333333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="71.25" spans="1:9">
+    <row r="1" s="3" customFormat="1" ht="71.25" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2278,7 +2328,7 @@
       <c r="E2" s="22">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="22">
         <v>2</v>
       </c>
       <c r="G2" s="4">
@@ -2288,68 +2338,77 @@
         <v>2</v>
       </c>
       <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="J4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:10">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2368,14 +2427,17 @@
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="5">
         <v>3</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>45</v>
+      <c r="J5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="24" customFormat="1" ht="14.25"/>
@@ -2391,7 +2453,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 F4:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4 G4:J4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2406,7 +2468,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2422,36 +2484,36 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="90" customHeight="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2480,60 +2542,60 @@
     </row>
     <row r="3" s="29" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" s="29" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="14.25" spans="1:9">
@@ -2550,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I5" s="5">
         <v>1200</v>
@@ -2584,7 +2646,7 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2602,36 +2664,36 @@
   <sheetData>
     <row r="1" ht="126" customHeight="1" spans="1:9">
       <c r="A1" s="25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2660,60 +2722,60 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" s="23" customFormat="1" spans="1:9">
@@ -2724,22 +2786,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G5" s="23">
         <v>2</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I5" s="23">
         <v>1</v>
@@ -2766,10 +2828,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2782,45 +2844,49 @@
     <col min="6" max="6" width="30.5833333333333" style="13" customWidth="1"/>
     <col min="7" max="7" width="27.125" customWidth="1"/>
     <col min="8" max="8" width="40.4333333333333" customWidth="1"/>
-    <col min="9" max="9" width="35.5833333333333" customWidth="1"/>
-    <col min="10" max="11" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="42.7833333333333" customWidth="1"/>
+    <col min="10" max="10" width="35.5833333333333" customWidth="1"/>
+    <col min="11" max="12" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="106" customHeight="1" spans="1:10">
+    <row r="1" ht="106" customHeight="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:10">
+        <v>100</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:11">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2843,78 +2909,81 @@
       <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="22">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" ht="14.25" spans="1:11">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:10">
+        <v>108</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:11">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="14.25" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="14.25" spans="1:11">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -2925,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
@@ -2934,19 +3003,20 @@
         <v>1</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="19">
+        <v>113</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="19">
         <v>120</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:10">
+    <row r="6" ht="14.25" spans="1:11">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2957,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -2966,21 +3036,22 @@
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="5">
+        <v>116</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:K4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -3009,24 +3080,24 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="57" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -3043,36 +3114,36 @@
     </row>
     <row r="3" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="14.25" spans="1:5">
@@ -3083,13 +3154,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3121,16 +3192,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3138,13 +3209,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3152,13 +3223,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3166,13 +3237,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3180,13 +3251,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3194,13 +3265,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3208,13 +3279,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3222,13 +3293,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3236,13 +3307,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3250,13 +3321,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3264,13 +3335,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3278,13 +3349,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3292,10 +3363,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3303,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3311,7 +3382,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3319,7 +3390,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3327,7 +3398,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3335,7 +3406,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3343,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3351,7 +3422,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3359,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3367,7 +3438,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3375,7 +3446,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3383,7 +3454,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3391,7 +3462,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3399,13 +3470,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3413,13 +3484,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3427,13 +3498,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3441,13 +3512,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3455,10 +3526,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3466,13 +3537,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3480,13 +3551,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3494,13 +3565,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3508,13 +3579,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3522,13 +3593,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3536,13 +3607,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3550,10 +3621,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
